--- a/basic-testing-project/src/test/resources/Data.xlsx
+++ b/basic-testing-project/src/test/resources/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t xml:space="preserve">Servidor</t>
   </si>
@@ -85,10 +85,13 @@
     <t xml:space="preserve">//LABEL[@class='errorCls']</t>
   </si>
   <si>
-    <t xml:space="preserve">El usuario no está registrado o la clave introducida es incorrecta</t>
+    <t xml:space="preserve">El usuario no esta registrado o la clave introducida es incorrecta</t>
   </si>
   <si>
     <t xml:space="preserve">testLoginErrPass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario no esta registrado o la clave introducida es inorrecta</t>
   </si>
   <si>
     <t xml:space="preserve">testLoginSucess</t>
@@ -153,7 +156,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -183,12 +186,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -305,11 +302,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,11 +390,11 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.28"/>
@@ -482,7 +479,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -542,7 +539,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -565,7 +562,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -604,7 +601,7 @@
     </row>
     <row r="8" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>15</v>
@@ -622,10 +619,10 @@
         <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -637,28 +634,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>11</v>
@@ -672,40 +669,40 @@
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/basic-testing-project/src/test/resources/Data.xlsx
+++ b/basic-testing-project/src/test/resources/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t xml:space="preserve">Servidor</t>
   </si>
@@ -91,16 +91,13 @@
     <t xml:space="preserve">testLoginErrPass</t>
   </si>
   <si>
-    <t xml:space="preserve">El usuario no esta registrado o la clave introducida es inorrecta</t>
-  </si>
-  <si>
     <t xml:space="preserve">testLoginSucess</t>
   </si>
   <si>
     <t xml:space="preserve">principal</t>
   </si>
   <si>
-    <t xml:space="preserve">¡Bienvenid@! Comience a navegar por el árbol lateral de servicios</t>
+    <t xml:space="preserve">¡Bienvenid@! Comience a navegar por el arbol lateral de servicios</t>
   </si>
   <si>
     <t xml:space="preserve">partialLink1</t>
@@ -391,7 +388,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -562,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -601,7 +598,7 @@
     </row>
     <row r="8" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>15</v>
@@ -619,10 +616,10 @@
         <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -634,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>11</v>
@@ -669,40 +666,40 @@
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/basic-testing-project/src/test/resources/Data.xlsx
+++ b/basic-testing-project/src/test/resources/Data.xlsx
@@ -97,7 +97,7 @@
     <t xml:space="preserve">principal</t>
   </si>
   <si>
-    <t xml:space="preserve">¡Bienvenid@! Comience a navegar por el arbol lateral de servicios</t>
+    <t xml:space="preserve">Bienvenid@ Administrador, comience a navegar por el árbol lateral de servicios</t>
   </si>
   <si>
     <t xml:space="preserve">partialLink1</t>
@@ -388,7 +388,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/basic-testing-project/src/test/resources/Data.xlsx
+++ b/basic-testing-project/src/test/resources/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20580" windowHeight="8580" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,138 +22,134 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
-    <t xml:space="preserve">Servidor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTNAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pruebas CDISM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://localhost:8083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sg/prjManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method-Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submitName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element2Check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value2Check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testLoginErrUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entryForm.user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entryForm.password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submitForm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//LABEL[@class='errorCls']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario no esta registrado o la clave introducida es incorrecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testLoginErrPass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testLoginSucess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bienvenid@ Administrador, comience a navegar por el árbol lateral de servicios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partialLink1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partialLinkvalue1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partialLink2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partialLinkvalue2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partialLink3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partialLinkvalue3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testQueryEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhtmlgoodies_tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//A[@id='dhtmlgoodies_treeNode20']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//A[@id='dhtmlgoodies_treeNode21']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incidenciasProyecto.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">466399#apagaaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incidenciasProyectoSel.id0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">466399</t>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>HOSTNAME</t>
+  </si>
+  <si>
+    <t>CONTEXT</t>
+  </si>
+  <si>
+    <t>Pruebas CDISM</t>
+  </si>
+  <si>
+    <t>http://localhost:8083</t>
+  </si>
+  <si>
+    <t>/sg/prjManager</t>
+  </si>
+  <si>
+    <t>Method-Test</t>
+  </si>
+  <si>
+    <t>input1</t>
+  </si>
+  <si>
+    <t>valor1</t>
+  </si>
+  <si>
+    <t>input2</t>
+  </si>
+  <si>
+    <t>valor2</t>
+  </si>
+  <si>
+    <t>submitName</t>
+  </si>
+  <si>
+    <t>element2Check</t>
+  </si>
+  <si>
+    <t>value2Check</t>
+  </si>
+  <si>
+    <t>testLoginErrUser</t>
+  </si>
+  <si>
+    <t>entryForm.user</t>
+  </si>
+  <si>
+    <t>admn</t>
+  </si>
+  <si>
+    <t>entryForm.password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>submitForm</t>
+  </si>
+  <si>
+    <t>//LABEL[@class='errorCls']</t>
+  </si>
+  <si>
+    <t>testLoginErrPass</t>
+  </si>
+  <si>
+    <t>testLoginSucess</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>partialLink1</t>
+  </si>
+  <si>
+    <t>partialLinkvalue1</t>
+  </si>
+  <si>
+    <t>partialLink2</t>
+  </si>
+  <si>
+    <t>partialLinkvalue2</t>
+  </si>
+  <si>
+    <t>partialLink3</t>
+  </si>
+  <si>
+    <t>partialLinkvalue3</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>testQueryEvent</t>
+  </si>
+  <si>
+    <t>dhtmlgoodies_tree</t>
+  </si>
+  <si>
+    <t>//A[@id='dhtmlgoodies_treeNode20']</t>
+  </si>
+  <si>
+    <t>//A[@id='dhtmlgoodies_treeNode21']</t>
+  </si>
+  <si>
+    <t>incidenciasProyecto.id</t>
+  </si>
+  <si>
+    <t>466399#apagaaa</t>
+  </si>
+  <si>
+    <t>466399</t>
+  </si>
+  <si>
+    <t>El usuario no está registrado o la clave introducida es incorrecta</t>
+  </si>
+  <si>
+    <t>¡Bienvenid@! Comience a navegar por el árbol lateral de servicios</t>
+  </si>
+  <si>
+    <t>//input[@id='incidenciasProyectoSel.id0']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -162,22 +158,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -185,7 +166,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -214,7 +195,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -222,101 +203,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -375,38 +311,333 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.57"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -426,7 +657,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -446,7 +677,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -476,7 +707,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -499,14 +730,14 @@
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -536,9 +767,9 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>15</v>
@@ -559,14 +790,14 @@
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -596,9 +827,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>15</v>
@@ -616,43 +847,43 @@
         <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>11</v>
@@ -664,45 +895,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -716,7 +947,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -730,19 +961,14 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8083"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>